--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_hwb5_53.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_hwb5_53.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N641"/>
+  <dimension ref="A1:N642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4009478092193604</v>
+        <v>0.4467430114746094</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001519918441772461</v>
+        <v>0.00884699821472168</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04483509063720703</v>
+        <v>0.08079099655151367</v>
       </c>
     </row>
     <row r="8">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0.04948807376910563</v>
+        <v>0.04948747991578352</v>
       </c>
     </row>
     <row r="636">
@@ -4926,116 +4926,126 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>12785.34287208</v>
+        <v>12803.34287208</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>23</v>
+        <v>0.9986447699467776</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>583</v>
+        <v>23</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>6</v>
+        <v>598</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>0.4697349071502686</v>
+        <v>6</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>0.5813970565795898</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B641" t="inlineStr">
+      <c r="B642" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C641" t="inlineStr">
+      <c r="C642" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D641" t="inlineStr">
+      <c r="D642" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E641" t="inlineStr">
+      <c r="E642" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F641" t="inlineStr">
+      <c r="F642" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G641" t="inlineStr">
+      <c r="G642" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
+      <c r="H642" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I641" t="inlineStr">
+      <c r="I642" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J641" t="inlineStr">
+      <c r="J642" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K641" t="inlineStr">
+      <c r="K642" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L641" t="inlineStr">
+      <c r="L642" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M641" t="inlineStr">
+      <c r="M642" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N641" t="inlineStr">
+      <c r="N642" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_hwb5_53.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_hwb5_53.qasm_rb2_archsize3_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4467430114746094</v>
+        <v>0.001014947891235352</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00884699821472168</v>
+        <v>0.0005161762237548828</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08079099655151367</v>
+        <v>0.1521239280700684</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1), (0, 2), (0, 1), (0, 0), (1, 2)]</t>
+          <t>[[1, 0], [1, 1], [0, 2], [0, 1], [0, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[(1, 2), (1, 1), (2, 0), (2, 1), (1, 0), (0, 1)]</t>
+          <t>[[1, 2], [1, 1], [2, 0], [2, 1], [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 2), (1, 0), (2, 0), (1, 1), (2, 1)]</t>
+          <t>[[0, 1], [1, 2], [1, 0], [2, 0], [1, 1], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[(1, 0), (2, 2), (2, 1), (0, 1), (1, 2), (1, 1)]</t>
+          <t>[[1, 0], [2, 2], [2, 1], [0, 1], [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[(1, 2), (0, 1), (1, 1), (0, 0), (1, 0), (0, 2)]</t>
+          <t>[[1, 2], [0, 1], [1, 1], [0, 0], [1, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 2), (1, 1), (0, 1), (1, 0), (1, 2)]</t>
+          <t>[[0, 0], [0, 2], [1, 1], [0, 1], [1, 0], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0.5813970565795898</v>
+        <v>0.1850817203521729</v>
       </c>
     </row>
     <row r="642">
